--- a/Excel/Carga DB Postgres/Grua - CARGADO.xlsx
+++ b/Excel/Carga DB Postgres/Grua - CARGADO.xlsx
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/Excel/Carga DB Postgres/Grua - CARGADO.xlsx
+++ b/Excel/Carga DB Postgres/Grua - CARGADO.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
